--- a/07_Metadata/variables_dbenv.xlsx
+++ b/07_Metadata/variables_dbenv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zeitl\Documents\mastersresearch\07_Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317EE47A-7893-4A9E-B25D-C08F4466890B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9D4206-A146-4A4C-9F34-40B7E62BD186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="1620" windowWidth="10710" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
